--- a/biology/Botanique/Érinose/Érinose.xlsx
+++ b/biology/Botanique/Érinose/Érinose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rinose</t>
+          <t>Érinose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’érinose est une maladie de la vigne provoquée par un acarien microscopique, Colomerus vitis (famille des Eriophyidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rinose</t>
+          <t>Érinose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles présentent des boursouflures face supérieure et face inférieure des creux garnis de poils. Ce feutrage est une hypertrophie des poils du limbe. Avec l'âge, ils virent au rouge.
 L'attaque remonte le rameau au fur et à mesure de la croissance. En général, les dégâts sont limités et n'ont pas de conséquences sur la récolte. Toutefois, les années d'apparition précoce, les feuilles assurent mal la photosynthèse et le déficit d'alimentation peut entraîner de la coulure et une baisse significative de récolte.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rinose</t>
+          <t>Érinose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Méthodes de lutte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement ne s'impose qu'en cas d'infection importante. Généralement, les traitements au soufre mouillable destinés à la lutte contre l'oïdium sont suffisants.
-En lutte biologique, des auxiliaires de culture permettent de limiter la population de Colomerus vitis, comme les acariens prédateurs du genre Typhlodromus[1], couramment appelés typhlodromes.
+En lutte biologique, des auxiliaires de culture permettent de limiter la population de Colomerus vitis, comme les acariens prédateurs du genre Typhlodromus, couramment appelés typhlodromes.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rinose</t>
+          <t>Érinose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
